--- a/SOLON_INPUT.xlsx
+++ b/SOLON_INPUT.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>Πελάτης</t>
   </si>
@@ -37,100 +37,94 @@
     <t>Αποτέλεσμα Συζήτησης</t>
   </si>
   <si>
-    <t>ΑΝΤΩΝΙΟΥ ΑΝΔΡΕΑΣ</t>
+    <t>ΜΠΕΓΙΑΣ ΘΕΟΔΩΡΟΣ</t>
+  </si>
+  <si>
+    <t>ΠΡΩΤΟΔΙΚΕΙΟ ΑΘΗΝΩΝ</t>
+  </si>
+  <si>
+    <t>ΠΕΤΥΧΑΚΗΣ ΜΙΧΑΛΗΣ</t>
+  </si>
+  <si>
+    <t>ΚΑΡΑΤΖΑΦΕΡΗΣ ΒΑΣΙΛΗΣ</t>
+  </si>
+  <si>
+    <t>ΕΦΕΤΕΙΟ ΑΘΗΝΩΝ</t>
+  </si>
+  <si>
+    <t>ΜΠΑΣΔΕΚΗΣ ΚΩΣΤΑΣ</t>
+  </si>
+  <si>
+    <t>ΣΕΪΜΕΝΗΣ ΓΙΑΝΝΗΣ1</t>
+  </si>
+  <si>
+    <t>ΣΕΪΜΕΝΗΣ ΓΙΑΝΝΗΣ2</t>
+  </si>
+  <si>
+    <t>ΤΣΙΡΟΠΟΥΛΟΥ ΣΤΑΜΑΤΙΑ</t>
+  </si>
+  <si>
+    <t>ΒΑΚΑΛΟΠΟΥΛΟΥ ΔΕΔΔΗΕ</t>
+  </si>
+  <si>
+    <t>ΚΑΚΑΛΗΣ ΚΩΣΤΑΣ</t>
+  </si>
+  <si>
+    <t>ΒΑΚΑΛΟΠΟΥΛΟΥ ΧΕΙΡΔ</t>
+  </si>
+  <si>
+    <t>ΕΙΡΗΝΟΔΙΚΕΙΟ ΧΑΛΚΙΔΑΣ</t>
+  </si>
+  <si>
+    <t>ΜΑΝΤΖΑΡΗ</t>
+  </si>
+  <si>
+    <t>ΓΙΑΝΝΑΚΟΠΟΥΛΟΥ</t>
+  </si>
+  <si>
+    <t>ΕΙΡΗΝΟΔΙΚΕΙΟ ΚΡΩΠΙΑΣ</t>
+  </si>
+  <si>
+    <t>ΣΕΡΕΤΗ ΓΙΩΤΑ</t>
+  </si>
+  <si>
+    <t>ΓΟΥΛΑΣ ΠΑΝΟΣ</t>
+  </si>
+  <si>
+    <t>ΠΑΥΛΗ ΕΥΑΓΓΕΛΙΑ</t>
+  </si>
+  <si>
+    <t>ΜΑΤΣΙΩΤΑΣ</t>
+  </si>
+  <si>
+    <t>ΚΑΣΙΔΑΚΗ</t>
+  </si>
+  <si>
+    <t>ΣΠΥΡΟΠΟΥΛΟΣ</t>
+  </si>
+  <si>
+    <t>ΜΑΡΚΟΥΛΗΣ</t>
+  </si>
+  <si>
+    <t>ΚΟΥΤΣΙΟΣ</t>
+  </si>
+  <si>
+    <t>ΚΥΡΙΑΖΗΣ</t>
+  </si>
+  <si>
+    <t>ΛΑΜΠΡΟΠΟΥΛΟΣ</t>
+  </si>
+  <si>
+    <t>ΓΚΑΝΤΩΝΑ ΓΙΩΤΑ</t>
   </si>
   <si>
     <t>ΕΙΡΗΝΟΔΙΚΕΙΟ ΑΘΗΝΩΝ</t>
   </si>
   <si>
-    <t>ΜΠΕΓΙΑΣ ΘΕΟΔΩΡΟΣ</t>
-  </si>
-  <si>
-    <t>ΠΡΩΤΟΔΙΚΕΙΟ ΑΘΗΝΩΝ</t>
-  </si>
-  <si>
-    <t>ΠΕΤΥΧΑΚΗΣ ΜΙΧΑΛΗΣ</t>
-  </si>
-  <si>
-    <t>ΚΑΡΑΤΖΑΦΕΡΗΣ ΒΑΣΙΛΗΣ</t>
-  </si>
-  <si>
-    <t>ΕΦΕΤΕΙΟ ΑΘΗΝΩΝ</t>
-  </si>
-  <si>
-    <t>ΜΠΑΣΔΕΚΗΣ ΚΩΣΤΑΣ</t>
-  </si>
-  <si>
-    <t>ΣΕΪΜΕΝΗΣ ΓΙΑΝΝΗΣ1</t>
-  </si>
-  <si>
-    <t>ΣΕΪΜΕΝΗΣ ΓΙΑΝΝΗΣ2</t>
-  </si>
-  <si>
-    <t>ΤΣΙΡΟΠΟΥΛΟΥ ΣΤΑΜΑΤΙΑ</t>
-  </si>
-  <si>
-    <t>ΒΑΚΑΛΟΠΟΥΛΟΥ ΔΕΔΔΗΕ</t>
-  </si>
-  <si>
-    <t>ΚΑΚΑΛΗΣ ΚΩΣΤΑΣ</t>
-  </si>
-  <si>
-    <t>ΒΑΚΑΛΟΠΟΥΛΟΥ ΧΕΙΡΔ</t>
-  </si>
-  <si>
-    <t>ΕΙΡΗΝΟΔΙΚΕΙΟ ΧΑΛΚΙΔΑΣ</t>
-  </si>
-  <si>
-    <t>ΜΑΝΤΖΑΡΗ</t>
-  </si>
-  <si>
-    <t>ΓΙΑΝΝΑΚΟΠΟΥΛΟΥ</t>
-  </si>
-  <si>
-    <t>ΕΙΡΗΝΟΔΙΚΕΙΟ ΚΡΩΠΙΑΣ</t>
-  </si>
-  <si>
-    <t>ΣΕΡΕΤΗ ΓΙΩΤΑ</t>
-  </si>
-  <si>
-    <t>ΓΟΥΛΑΣ ΠΑΝΟΣ</t>
-  </si>
-  <si>
-    <t>ΠΑΥΛΗ ΕΥΑΓΓΕΛΙΑ</t>
-  </si>
-  <si>
-    <t>ΜΑΤΣΙΩΤΑΣ</t>
-  </si>
-  <si>
-    <t>ΚΑΣΙΔΑΚΗ</t>
-  </si>
-  <si>
-    <t>ΣΠΥΡΟΠΟΥΛΟΣ</t>
-  </si>
-  <si>
-    <t>ΜΑΡΚΟΥΛΗΣ</t>
-  </si>
-  <si>
-    <t>ΚΟΥΤΣΙΟΣ</t>
-  </si>
-  <si>
-    <t>ΚΥΡΙΑΖΗΣ</t>
-  </si>
-  <si>
-    <t>ΛΑΜΠΡΟΠΟΥΛΟΣ</t>
-  </si>
-  <si>
-    <t>ΓΚΑΝΤΩΝΑ ΓΙΩΤΑ</t>
-  </si>
-  <si>
     <t>ΠΕΡΓΑΝΤΗΣ ΣΤΕΛΙΟΣ Euro</t>
   </si>
   <si>
-    <t>ΛΙΖΟΣ</t>
-  </si>
-  <si>
-    <t>ΓΑΓΚΑ</t>
+    <t>ΛΙΖΟΣ ΚΩΣΤΑΣ</t>
   </si>
   <si>
     <t>ΠΑΠΑΔΑΣΚΑΛΟΠΟΥΛΟΥ</t>
@@ -151,9 +145,6 @@
     <t>ΚΟΥΤΣΟΥΜΠΑΣ</t>
   </si>
   <si>
-    <t>ΛΙΑΚΟΥΤΣΗΣ</t>
-  </si>
-  <si>
     <t>ΜΑΘΙΟΥ</t>
   </si>
   <si>
@@ -169,15 +160,6 @@
     <t>ΜΑΡΓΑΡΙΤΗ</t>
   </si>
   <si>
-    <t>ΣΤΑΥΡΟΥΛΑΚΗ ΒΑΣΩ ΑΓΩΓΗ</t>
-  </si>
-  <si>
-    <t>ΕΙΡΗΝΟΔΙΚΕΙΟ ΚΑΛΛΙΘΕΑΣ</t>
-  </si>
-  <si>
-    <t>ΣΤΑΥΡΟΥΛΑΚΗ ΒΑΣΩ ΑΝΤΑΓΩΓΗ</t>
-  </si>
-  <si>
     <t>ΤΖΑΡΑ vs ΕΤΕ</t>
   </si>
   <si>
@@ -199,13 +181,7 @@
     <t>ΤΣΕΒΗΣ</t>
   </si>
   <si>
-    <t>ΚΟΥΡΗΣ ΣΠΥΡΟΣ</t>
-  </si>
-  <si>
-    <t>ΔΟΚΙΜΗ1</t>
-  </si>
-  <si>
-    <t>ΔΟΚΙΜΗ2</t>
+    <t>ΔΟΚΙΜΗ RUN OF SOLON_AUTO</t>
   </si>
 </sst>
 </file>
@@ -1461,7 +1437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1509,10 +1485,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="5">
-        <v>19684</v>
+        <v>128639</v>
       </c>
       <c r="D2" s="5">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -1524,10 +1500,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="9">
-        <v>128639</v>
+        <v>103819</v>
       </c>
       <c r="D3" s="9">
         <v>2024</v>
@@ -1539,13 +1515,13 @@
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s" s="8">
         <v>12</v>
       </c>
-      <c r="B4" t="s" s="8">
-        <v>11</v>
-      </c>
       <c r="C4" s="9">
-        <v>103819</v>
+        <v>8155</v>
       </c>
       <c r="D4" s="9">
         <v>2024</v>
@@ -1560,10 +1536,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s" s="8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C5" s="9">
-        <v>8155</v>
+        <v>104339</v>
       </c>
       <c r="D5" s="9">
         <v>2024</v>
@@ -1575,13 +1551,13 @@
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="9">
-        <v>104339</v>
+        <v>8154</v>
       </c>
       <c r="D6" s="9">
         <v>2024</v>
@@ -1593,16 +1569,16 @@
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s" s="8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C7" s="9">
-        <v>8154</v>
+        <v>154164</v>
       </c>
       <c r="D7" s="9">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -1611,16 +1587,16 @@
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="9">
-        <v>154164</v>
+        <v>45359</v>
       </c>
       <c r="D8" s="9">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -1629,13 +1605,13 @@
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" s="9">
-        <v>45359</v>
+        <v>119548</v>
       </c>
       <c r="D9" s="9">
         <v>2022</v>
@@ -1647,13 +1623,13 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" s="9">
-        <v>119548</v>
+        <v>121656</v>
       </c>
       <c r="D10" s="9">
         <v>2022</v>
@@ -1665,16 +1641,16 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="7">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s" s="8">
         <v>20</v>
       </c>
-      <c r="B11" t="s" s="8">
-        <v>11</v>
-      </c>
       <c r="C11" s="9">
-        <v>121656</v>
+        <v>863</v>
       </c>
       <c r="D11" s="9">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -1686,13 +1662,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s" s="8">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C12" s="9">
-        <v>863</v>
+        <v>35606</v>
       </c>
       <c r="D12" s="9">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -1701,16 +1677,16 @@
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="7">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s" s="8">
         <v>23</v>
       </c>
-      <c r="B13" t="s" s="8">
-        <v>11</v>
-      </c>
       <c r="C13" s="9">
-        <v>35606</v>
+        <v>3590</v>
       </c>
       <c r="D13" s="9">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -1722,13 +1698,13 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="8">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C14" s="9">
-        <v>3590</v>
+        <v>37388</v>
       </c>
       <c r="D14" s="9">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -1737,16 +1713,16 @@
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" s="9">
-        <v>37388</v>
+        <v>83768</v>
       </c>
       <c r="D15" s="9">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -1755,13 +1731,13 @@
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" s="9">
-        <v>83768</v>
+        <v>83109</v>
       </c>
       <c r="D16" s="9">
         <v>2025</v>
@@ -1773,16 +1749,16 @@
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C17" s="9">
-        <v>83109</v>
+        <v>127165</v>
       </c>
       <c r="D17" s="9">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -1791,13 +1767,13 @@
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C18" s="9">
-        <v>127165</v>
+        <v>128639</v>
       </c>
       <c r="D18" s="9">
         <v>2022</v>
@@ -1809,16 +1785,16 @@
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C19" s="9">
-        <v>128639</v>
+        <v>118721</v>
       </c>
       <c r="D19" s="9">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -1827,16 +1803,16 @@
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" t="s" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" s="9">
-        <v>118721</v>
+        <v>2627</v>
       </c>
       <c r="D20" s="9">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
@@ -1845,13 +1821,13 @@
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C21" s="9">
-        <v>2627</v>
+        <v>98797</v>
       </c>
       <c r="D21" s="9">
         <v>2025</v>
@@ -1863,13 +1839,13 @@
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" t="s" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s" s="8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C22" s="9">
-        <v>98797</v>
+        <v>115245</v>
       </c>
       <c r="D22" s="9">
         <v>2025</v>
@@ -1881,13 +1857,13 @@
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C23" s="9">
-        <v>115245</v>
+        <v>194682</v>
       </c>
       <c r="D23" s="9">
         <v>2025</v>
@@ -1899,16 +1875,16 @@
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s" s="8">
         <v>35</v>
       </c>
-      <c r="B24" t="s" s="8">
-        <v>11</v>
-      </c>
       <c r="C24" s="9">
-        <v>194682</v>
+        <v>46666</v>
       </c>
       <c r="D24" s="9">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
@@ -1923,7 +1899,7 @@
         <v>9</v>
       </c>
       <c r="C25" s="9">
-        <v>46666</v>
+        <v>44181</v>
       </c>
       <c r="D25" s="9">
         <v>2023</v>
@@ -1938,10 +1914,10 @@
         <v>37</v>
       </c>
       <c r="B26" t="s" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C26" s="9">
-        <v>44181</v>
+        <v>16304</v>
       </c>
       <c r="D26" s="9">
         <v>2023</v>
@@ -1956,13 +1932,13 @@
         <v>38</v>
       </c>
       <c r="B27" t="s" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C27" s="9">
-        <v>16304</v>
+        <v>200457</v>
       </c>
       <c r="D27" s="9">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
@@ -1974,10 +1950,10 @@
         <v>39</v>
       </c>
       <c r="B28" t="s" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C28" s="9">
-        <v>50290</v>
+        <v>499</v>
       </c>
       <c r="D28" s="9">
         <v>2024</v>
@@ -1992,13 +1968,13 @@
         <v>40</v>
       </c>
       <c r="B29" t="s" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C29" s="9">
-        <v>200457</v>
+        <v>66563</v>
       </c>
       <c r="D29" s="9">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
@@ -2010,10 +1986,10 @@
         <v>41</v>
       </c>
       <c r="B30" t="s" s="8">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C30" s="9">
-        <v>499</v>
+        <v>7078</v>
       </c>
       <c r="D30" s="9">
         <v>2024</v>
@@ -2025,16 +2001,16 @@
     </row>
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" t="s" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C31" s="9">
-        <v>66563</v>
+        <v>92174</v>
       </c>
       <c r="D31" s="9">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -2043,16 +2019,16 @@
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" t="s" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s" s="8">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="C32" s="9">
-        <v>7078</v>
+        <v>52527</v>
       </c>
       <c r="D32" s="9">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
@@ -2064,13 +2040,13 @@
         <v>45</v>
       </c>
       <c r="B33" t="s" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C33" s="9">
-        <v>92174</v>
+        <v>8973</v>
       </c>
       <c r="D33" s="9">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -2082,10 +2058,10 @@
         <v>46</v>
       </c>
       <c r="B34" t="s" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C34" s="9">
-        <v>87931</v>
+        <v>39008</v>
       </c>
       <c r="D34" s="9">
         <v>2023</v>
@@ -2100,13 +2076,13 @@
         <v>47</v>
       </c>
       <c r="B35" t="s" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C35" s="9">
-        <v>52527</v>
+        <v>11108</v>
       </c>
       <c r="D35" s="9">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
@@ -2118,13 +2094,13 @@
         <v>48</v>
       </c>
       <c r="B36" t="s" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C36" s="9">
-        <v>8973</v>
+        <v>132783</v>
       </c>
       <c r="D36" s="9">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -2136,13 +2112,13 @@
         <v>49</v>
       </c>
       <c r="B37" t="s" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C37" s="9">
-        <v>39008</v>
+        <v>25898</v>
       </c>
       <c r="D37" s="9">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
@@ -2154,13 +2130,13 @@
         <v>50</v>
       </c>
       <c r="B38" t="s" s="8">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C38" s="9">
-        <v>11108</v>
+        <v>18012</v>
       </c>
       <c r="D38" s="9">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -2172,13 +2148,13 @@
         <v>51</v>
       </c>
       <c r="B39" t="s" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C39" s="9">
-        <v>132783</v>
+        <v>136764</v>
       </c>
       <c r="D39" s="9">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -2190,10 +2166,10 @@
         <v>52</v>
       </c>
       <c r="B40" t="s" s="8">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C40" s="9">
-        <v>1405</v>
+        <v>63010</v>
       </c>
       <c r="D40" s="9">
         <v>2023</v>
@@ -2205,16 +2181,16 @@
     </row>
     <row r="41" ht="20.05" customHeight="1">
       <c r="A41" t="s" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s" s="8">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C41" s="9">
-        <v>35295</v>
+        <v>13697</v>
       </c>
       <c r="D41" s="9">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -2223,13 +2199,13 @@
     </row>
     <row r="42" ht="20.05" customHeight="1">
       <c r="A42" t="s" s="7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C42" s="9">
-        <v>25898</v>
+        <v>128690</v>
       </c>
       <c r="D42" s="9">
         <v>2024</v>
@@ -2241,13 +2217,13 @@
     </row>
     <row r="43" ht="20.05" customHeight="1">
       <c r="A43" t="s" s="7">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s" s="8">
         <v>9</v>
       </c>
       <c r="C43" s="9">
-        <v>18012</v>
+        <v>129983</v>
       </c>
       <c r="D43" s="9">
         <v>2024</v>
@@ -2259,16 +2235,16 @@
     </row>
     <row r="44" ht="20.05" customHeight="1">
       <c r="A44" t="s" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C44" s="9">
-        <v>136764</v>
+        <v>70927</v>
       </c>
       <c r="D44" s="9">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -2276,126 +2252,70 @@
       <c r="H44" s="10"/>
     </row>
     <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" t="s" s="7">
-        <v>58</v>
-      </c>
-      <c r="B45" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C45" s="9">
-        <v>63010</v>
-      </c>
-      <c r="D45" s="9">
-        <v>2023</v>
-      </c>
+      <c r="A45" s="11"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
     </row>
     <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="B46" t="s" s="8">
-        <v>44</v>
-      </c>
-      <c r="C46" s="9">
-        <v>13697</v>
-      </c>
-      <c r="D46" s="9">
-        <v>2024</v>
-      </c>
+      <c r="A46" s="11"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
     </row>
     <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" t="s" s="7">
-        <v>60</v>
-      </c>
-      <c r="B47" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C47" s="9">
-        <v>128690</v>
-      </c>
-      <c r="D47" s="9">
-        <v>2024</v>
-      </c>
+      <c r="A47" s="11"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
     </row>
     <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" t="s" s="7">
-        <v>61</v>
-      </c>
-      <c r="B48" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C48" s="9">
-        <v>129983</v>
-      </c>
-      <c r="D48" s="9">
-        <v>2024</v>
-      </c>
+      <c r="A48" s="11"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
     </row>
     <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" t="s" s="7">
-        <v>62</v>
-      </c>
-      <c r="B49" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C49" s="9">
-        <v>132679</v>
-      </c>
-      <c r="D49" s="9">
-        <v>2024</v>
-      </c>
+      <c r="A49" s="11"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
     </row>
     <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" t="s" s="7">
-        <v>63</v>
-      </c>
-      <c r="B50" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C50" s="9">
-        <v>19684</v>
-      </c>
-      <c r="D50" s="9">
-        <v>2023</v>
-      </c>
+      <c r="A50" s="11"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
     </row>
     <row r="51" ht="20.05" customHeight="1">
-      <c r="A51" t="s" s="7">
-        <v>64</v>
-      </c>
-      <c r="B51" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="C51" s="9">
-        <v>70927</v>
-      </c>
-      <c r="D51" s="9">
-        <v>2025</v>
-      </c>
+      <c r="A51" s="11"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
@@ -2471,76 +2391,6 @@
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
     </row>
-    <row r="59" ht="20.05" customHeight="1">
-      <c r="A59" s="11"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-    </row>
-    <row r="60" ht="20.05" customHeight="1">
-      <c r="A60" s="11"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-    </row>
-    <row r="61" ht="20.05" customHeight="1">
-      <c r="A61" s="11"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-    </row>
-    <row r="62" ht="20.05" customHeight="1">
-      <c r="A62" s="11"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-    </row>
-    <row r="63" ht="20.05" customHeight="1">
-      <c r="A63" s="11"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-    </row>
-    <row r="64" ht="20.05" customHeight="1">
-      <c r="A64" s="11"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-    </row>
-    <row r="65" ht="20.05" customHeight="1">
-      <c r="A65" s="11"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/SOLON_INPUT.xlsx
+++ b/SOLON_INPUT.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
   <si>
     <t>Πελάτης</t>
   </si>
@@ -28,157 +28,187 @@
     <t>Αριθμός Aπόφασης/'Ετος - Είδος Διατακτικού</t>
   </si>
   <si>
+    <t>Ημ. Κατάθεσης</t>
+  </si>
+  <si>
     <t>Διαδικασία</t>
   </si>
   <si>
-    <t>Ημ. Κατάθεσης</t>
-  </si>
-  <si>
     <t>Αποτέλεσμα Συζήτησης</t>
   </si>
   <si>
+    <t>ΤΣΙΡΟΠΟΥΛΟΥ ΣΤΑΜΑΤΙΑ</t>
+  </si>
+  <si>
+    <t>ΠΡΩΤΟΔΙΚΕΙΟ ΑΘΗΝΩΝ</t>
+  </si>
+  <si>
+    <t>ΝΕΑ ΤΑΚΤΙΚΗ ΜΟΝΟΜΕΛΟΥΣ</t>
+  </si>
+  <si>
+    <t>ΒΑΚΑΛΟΠΟΥΛΟΥ ΔΕΔΔΗΕ</t>
+  </si>
+  <si>
+    <t>ΑΣΦΑΛΙΣΤΙΚΑ ΜΕΤΡΑ ΜΟΝΟΜΕΛΕΣ</t>
+  </si>
+  <si>
+    <t>ΚΑΚΑΛΗΣ ΚΩΣΤΑΣ</t>
+  </si>
+  <si>
+    <t>ΜΑΤΣΙΩΤΑΣ</t>
+  </si>
+  <si>
+    <t>ΚΑΣΙΔΑΚΗ</t>
+  </si>
+  <si>
+    <t>ΜΑΡΓΑΡΙΤΗ ΑΛΕΞΙΑ</t>
+  </si>
+  <si>
+    <t>ΛΙΖΟΣ ΚΩΣΤΑΣ</t>
+  </si>
+  <si>
+    <t>ΒΑΚΑΛΟΠΟΥΛΟΥ ΧΕΙΡΔΑΡΗ</t>
+  </si>
+  <si>
+    <t>ΕΙΡΗΝΟΔΙΚΕΙΟ ΧΑΛΑΝΔΡΙΟΥ</t>
+  </si>
+  <si>
+    <t>ΒΕΒΕΛΟΓΙΑΝΝΗΣ ν Γκιτάκος</t>
+  </si>
+  <si>
+    <t>ΠΕΡΓΑΝΤΗΣ ΣΤΕΛΙΟΣ ν Eurobank</t>
+  </si>
+  <si>
+    <t>ΜΑΘΙΟΥ</t>
+  </si>
+  <si>
+    <t>ΝΕΑ ΤΑΚΤΙΚΗ ΠΟΛΥΜΕΛΟΥΣ</t>
+  </si>
+  <si>
+    <t>ΓΚΑΝΤΩΝΑ ΓΙΩΤΑ ν ALPHABANK</t>
+  </si>
+  <si>
+    <t>ΕΙΡΗΝΟΔΙΚΕΙΟ ΑΘΗΝΩΝ</t>
+  </si>
+  <si>
+    <t>ΓΙΑΝΝΑΚΟΠΟΥΛΟΥ</t>
+  </si>
+  <si>
+    <t>ΕΙΡΗΝΟΔΙΚΕΙΟ ΚΡΩΠΙΑΣ</t>
+  </si>
+  <si>
+    <t>ΜΙΚΡΟΔΙΑΦΟΡΕΣ</t>
+  </si>
+  <si>
+    <t>ΧΡΥΣΙΚΟΣ ν ΕθνικήΤραπ</t>
+  </si>
+  <si>
+    <t>ΕΥΔΟΚΙΜΟΣ ΡΟΥΜΑΝΙΑ</t>
+  </si>
+  <si>
+    <t>ΜΑΡΚΟΓΛΟΥ ν Πειραιώς</t>
+  </si>
+  <si>
+    <t>ΤΖΑΡΑ vs ΕΤΕ</t>
+  </si>
+  <si>
+    <t>ΜΑΛΤΕΖΟΣ vs BALL</t>
+  </si>
+  <si>
+    <t>ΜΑΝΤΖΑΡΗ ν Eurobank</t>
+  </si>
+  <si>
+    <t>ΣΕΡΕΤΗ ΓΙΩΤΑ</t>
+  </si>
+  <si>
+    <t>ΧΑΤΖΗ</t>
+  </si>
+  <si>
+    <t>ΠΕΤΥΧΑΚΗΣ ΜΙΧΑΛΗΣ</t>
+  </si>
+  <si>
+    <t>ΜΠΙΣΑΛΑ ΠΕΝΥ</t>
+  </si>
+  <si>
+    <t>ΠΡΩΤΟΔΙΚΕΙΟ ΠΕΙΡΑΙΑ</t>
+  </si>
+  <si>
+    <t>ΜΠΑΣΔΕΚΗΣ ΚΩΣΤΑΣ</t>
+  </si>
+  <si>
+    <t>ΚΑΡΑΤΖΑΦΕΡΗΣ ΒΑΣΙΛΗΣ</t>
+  </si>
+  <si>
+    <t>ΕΦΕΤΕΙΟ ΑΘΗΝΩΝ</t>
+  </si>
+  <si>
+    <t>ΤΑΚΤΙΚΗ ΠΟΛΥΜΕΛΟΥΣ</t>
+  </si>
+  <si>
+    <t>ΣΕΪΜΕΝΗΣ ΓΙΑΝΝΗΣ Έφεση</t>
+  </si>
+  <si>
+    <t>ΤΑΚΤΙΚΗ ΜΟΝΟΜΕΛΟΥΣ</t>
+  </si>
+  <si>
+    <t>ΣΠΥΡΟΠΟΥΛΟΣ</t>
+  </si>
+  <si>
+    <t>ΧΡΥΣΙΚΟΣ v ΠΑΠΠΑΣ</t>
+  </si>
+  <si>
+    <t>ΠΑΝΑΓΙΩΤΑΚΟΠΟΥΛΟΣ</t>
+  </si>
+  <si>
+    <t>ΤΣΕΒΗΣ ν Eurobank</t>
+  </si>
+  <si>
+    <t>ΤΟΥΝΤΑ ΚΑΤΕΡΙΝΑ</t>
+  </si>
+  <si>
+    <t>ΜΙΣΘΩΣΕΙΣ - ΠΕΡΙΟΥΣΙΑΚΕΣ ΔΙΑΦΟΡΕΣ</t>
+  </si>
+  <si>
     <t>ΜΠΕΓΙΑΣ ΘΕΟΔΩΡΟΣ</t>
   </si>
   <si>
-    <t>ΠΡΩΤΟΔΙΚΕΙΟ ΑΘΗΝΩΝ</t>
-  </si>
-  <si>
-    <t>ΠΕΤΥΧΑΚΗΣ ΜΙΧΑΛΗΣ</t>
-  </si>
-  <si>
-    <t>ΚΑΡΑΤΖΑΦΕΡΗΣ ΒΑΣΙΛΗΣ</t>
-  </si>
-  <si>
-    <t>ΕΦΕΤΕΙΟ ΑΘΗΝΩΝ</t>
-  </si>
-  <si>
-    <t>ΜΠΑΣΔΕΚΗΣ ΚΩΣΤΑΣ</t>
-  </si>
-  <si>
-    <t>ΣΕΪΜΕΝΗΣ ΓΙΑΝΝΗΣ1</t>
-  </si>
-  <si>
-    <t>ΣΕΪΜΕΝΗΣ ΓΙΑΝΝΗΣ2</t>
-  </si>
-  <si>
-    <t>ΤΣΙΡΟΠΟΥΛΟΥ ΣΤΑΜΑΤΙΑ</t>
-  </si>
-  <si>
-    <t>ΒΑΚΑΛΟΠΟΥΛΟΥ ΔΕΔΔΗΕ</t>
-  </si>
-  <si>
-    <t>ΚΑΚΑΛΗΣ ΚΩΣΤΑΣ</t>
-  </si>
-  <si>
-    <t>ΒΑΚΑΛΟΠΟΥΛΟΥ ΧΕΙΡΔ</t>
-  </si>
-  <si>
-    <t>ΕΙΡΗΝΟΔΙΚΕΙΟ ΧΑΛΚΙΔΑΣ</t>
-  </si>
-  <si>
-    <t>ΜΑΝΤΖΑΡΗ</t>
-  </si>
-  <si>
-    <t>ΓΙΑΝΝΑΚΟΠΟΥΛΟΥ</t>
-  </si>
-  <si>
-    <t>ΕΙΡΗΝΟΔΙΚΕΙΟ ΚΡΩΠΙΑΣ</t>
-  </si>
-  <si>
-    <t>ΣΕΡΕΤΗ ΓΙΩΤΑ</t>
+    <t>ΜΑΡΚΟΥΛΗΣ</t>
+  </si>
+  <si>
+    <t>ΒΕΒΕΛΟΓΙΑΝΝΗΣ ν Δημητρακάκης</t>
+  </si>
+  <si>
+    <t>ΠΑΠΑΔΟΠΟΥΛΟΥ ΕΛΕΝΑ</t>
+  </si>
+  <si>
+    <t>ΕΚΟΥΣΙΑ ΜΟΝΟΜΕΛΟΥΣ</t>
+  </si>
+  <si>
+    <t>ΠΑΥΛΗ ΕΥΑΓΓΕΛΙΑ</t>
   </si>
   <si>
     <t>ΓΟΥΛΑΣ ΠΑΝΟΣ</t>
   </si>
   <si>
-    <t>ΠΑΥΛΗ ΕΥΑΓΓΕΛΙΑ</t>
-  </si>
-  <si>
-    <t>ΜΑΤΣΙΩΤΑΣ</t>
-  </si>
-  <si>
-    <t>ΚΑΣΙΔΑΚΗ</t>
-  </si>
-  <si>
-    <t>ΣΠΥΡΟΠΟΥΛΟΣ</t>
-  </si>
-  <si>
-    <t>ΜΑΡΚΟΥΛΗΣ</t>
+    <t>ΚΟΥΤΣΟΥΜΠΑΣ</t>
   </si>
   <si>
     <t>ΚΟΥΤΣΙΟΣ</t>
   </si>
   <si>
+    <t>ΖΑΧΑΡΟΠΟΥΛΟΣ ΜΠΑΜΠΗΣ</t>
+  </si>
+  <si>
     <t>ΚΥΡΙΑΖΗΣ</t>
   </si>
   <si>
+    <t>ΣΕΪΜΕΝΗΣ ΓΙΑΝΝΗΣ ν Παπαδημητρίου</t>
+  </si>
+  <si>
     <t>ΛΑΜΠΡΟΠΟΥΛΟΣ</t>
   </si>
   <si>
-    <t>ΓΚΑΝΤΩΝΑ ΓΙΩΤΑ</t>
-  </si>
-  <si>
-    <t>ΕΙΡΗΝΟΔΙΚΕΙΟ ΑΘΗΝΩΝ</t>
-  </si>
-  <si>
-    <t>ΠΕΡΓΑΝΤΗΣ ΣΤΕΛΙΟΣ Euro</t>
-  </si>
-  <si>
-    <t>ΛΙΖΟΣ ΚΩΣΤΑΣ</t>
-  </si>
-  <si>
     <t>ΠΑΠΑΔΑΣΚΑΛΟΠΟΥΛΟΥ</t>
-  </si>
-  <si>
-    <t>ΕΥΔΟΚΙΜΟΣ ΡΟΥΜΑΝΙΑ</t>
-  </si>
-  <si>
-    <t>ΧΑΤΖΗ</t>
-  </si>
-  <si>
-    <t>ΜΠΙΣΑΛΑ ΠΕΝΥ</t>
-  </si>
-  <si>
-    <t>ΠΡΩΤΟΔΙΚΕΙΟ ΠΕΙΡΑΙΑ</t>
-  </si>
-  <si>
-    <t>ΚΟΥΤΣΟΥΜΠΑΣ</t>
-  </si>
-  <si>
-    <t>ΜΑΘΙΟΥ</t>
-  </si>
-  <si>
-    <t>ΜΑΡΚΟΓΛΟΥ</t>
-  </si>
-  <si>
-    <t>ΒΕΒΕΛΟΓΙΑΝΝΗΣ ν Γ</t>
-  </si>
-  <si>
-    <t>ΒΕΒΕΛΟΓΙΑΝΝΗΣ ν Δ</t>
-  </si>
-  <si>
-    <t>ΜΑΡΓΑΡΙΤΗ</t>
-  </si>
-  <si>
-    <t>ΤΖΑΡΑ vs ΕΤΕ</t>
-  </si>
-  <si>
-    <t>ΜΑΛΤΕΖΟΣ vs BALL</t>
-  </si>
-  <si>
-    <t>ΤΟΥΝΤΑ ΚΑΤΕΡΙΝΑ</t>
-  </si>
-  <si>
-    <t>ΧΡΥΣΙΚΟΣ</t>
-  </si>
-  <si>
-    <t>ΧΡΥΣΙΚΟΣ v ΠΑΠΠΑΣ</t>
-  </si>
-  <si>
-    <t>ΠΑΝΑΓΙΩΤΑΚΟΠΟΥΛΟΣ</t>
-  </si>
-  <si>
-    <t>ΤΣΕΒΗΣ</t>
   </si>
   <si>
     <t>ΔΟΚΙΜΗ RUN OF SOLON_AUTO</t>
@@ -188,8 +218,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="59" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -348,7 +379,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -370,6 +401,12 @@
     <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="59" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -380,6 +417,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1437,7 +1480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1445,9 +1488,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="28.6719" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.8594" style="1" customWidth="1"/>
-    <col min="3" max="8" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="34.0312" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.0234" style="1" customWidth="1"/>
+    <col min="3" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.8984" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.3516" style="1" customWidth="1"/>
     <col min="9" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1477,7 +1522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
+    <row r="2" ht="32.25" customHeight="1">
       <c r="A2" t="s" s="3">
         <v>8</v>
       </c>
@@ -1485,911 +1530,1123 @@
         <v>9</v>
       </c>
       <c r="C2" s="5">
+        <v>45359</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2022</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7">
+        <v>44695</v>
+      </c>
+      <c r="G2" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" ht="32.05" customHeight="1">
+      <c r="A3" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C3" s="11">
+        <v>119548</v>
+      </c>
+      <c r="D3" s="11">
+        <v>2022</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13">
+        <v>44895</v>
+      </c>
+      <c r="G3" t="s" s="14">
+        <v>12</v>
+      </c>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" ht="32.05" customHeight="1">
+      <c r="A4" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C4" s="11">
+        <v>121656</v>
+      </c>
+      <c r="D4" s="11">
+        <v>2022</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13">
+        <v>44900</v>
+      </c>
+      <c r="G4" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" ht="32.05" customHeight="1">
+      <c r="A5" t="s" s="9">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C5" s="11">
+        <v>127165</v>
+      </c>
+      <c r="D5" s="11">
+        <v>2022</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13">
+        <v>44912</v>
+      </c>
+      <c r="G5" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" ht="32.05" customHeight="1">
+      <c r="A6" t="s" s="9">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11">
         <v>128639</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D6" s="11">
+        <v>2022</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13">
+        <v>44915</v>
+      </c>
+      <c r="G6" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" ht="32.05" customHeight="1">
+      <c r="A7" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C7" s="11">
+        <v>132783</v>
+      </c>
+      <c r="D7" s="11">
+        <v>2022</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13">
+        <v>44926</v>
+      </c>
+      <c r="G7" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" ht="32.05" customHeight="1">
+      <c r="A8" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C8" s="11">
+        <v>16304</v>
+      </c>
+      <c r="D8" s="11">
+        <v>2023</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13">
+        <v>44967</v>
+      </c>
+      <c r="G8" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" ht="32.05" customHeight="1">
+      <c r="A9" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s" s="10">
+        <v>19</v>
+      </c>
+      <c r="C9" s="11">
+        <v>863</v>
+      </c>
+      <c r="D9" s="11">
+        <v>2023</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13">
+        <v>44972</v>
+      </c>
+      <c r="G9" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" ht="32.05" customHeight="1">
+      <c r="A10" t="s" s="9">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11">
+        <v>39008</v>
+      </c>
+      <c r="D10" s="11">
+        <v>2023</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13">
+        <v>45020</v>
+      </c>
+      <c r="G10" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" ht="32.05" customHeight="1">
+      <c r="A11" t="s" s="9">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11">
+        <v>44181</v>
+      </c>
+      <c r="D11" s="11">
+        <v>2023</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13">
+        <v>45036</v>
+      </c>
+      <c r="G11" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" ht="32.05" customHeight="1">
+      <c r="A12" t="s" s="9">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11">
+        <v>52527</v>
+      </c>
+      <c r="D12" s="11">
+        <v>2023</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13">
+        <v>45058</v>
+      </c>
+      <c r="G12" t="s" s="14">
+        <v>23</v>
+      </c>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" ht="32.05" customHeight="1">
+      <c r="A13" t="s" s="9">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s" s="10">
+        <v>25</v>
+      </c>
+      <c r="C13" s="11">
+        <v>46666</v>
+      </c>
+      <c r="D13" s="11">
+        <v>2023</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13">
+        <v>45081</v>
+      </c>
+      <c r="G13" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" t="s" s="9">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="C14" s="11">
+        <v>3590</v>
+      </c>
+      <c r="D14" s="11">
+        <v>2023</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13">
+        <v>45119</v>
+      </c>
+      <c r="G14" t="s" s="14">
+        <v>28</v>
+      </c>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" ht="32.05" customHeight="1">
+      <c r="A15" t="s" s="9">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s" s="10">
+        <v>25</v>
+      </c>
+      <c r="C15" s="11">
+        <v>63010</v>
+      </c>
+      <c r="D15" s="11">
+        <v>2023</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13">
+        <v>45129</v>
+      </c>
+      <c r="G15" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" ht="32.05" customHeight="1">
+      <c r="A16" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C16" s="11">
+        <v>499</v>
+      </c>
+      <c r="D16" s="11">
         <v>2024</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" t="s" s="7">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="E16" s="12"/>
+      <c r="F16" s="13">
+        <v>45294</v>
+      </c>
+      <c r="G16" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" ht="32.05" customHeight="1">
+      <c r="A17" t="s" s="9">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C17" s="11">
+        <v>8973</v>
+      </c>
+      <c r="D17" s="11">
+        <v>2023</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13">
+        <v>45314</v>
+      </c>
+      <c r="G17" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" ht="32.05" customHeight="1">
+      <c r="A18" t="s" s="9">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C18" s="11">
+        <v>25898</v>
+      </c>
+      <c r="D18" s="11">
+        <v>2024</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13">
+        <v>45351</v>
+      </c>
+      <c r="G18" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" ht="32.05" customHeight="1">
+      <c r="A19" t="s" s="9">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s" s="10">
+        <v>25</v>
+      </c>
+      <c r="C19" s="11">
+        <v>18012</v>
+      </c>
+      <c r="D19" s="11">
+        <v>2024</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13">
+        <v>45351</v>
+      </c>
+      <c r="G19" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" ht="32.05" customHeight="1">
+      <c r="A20" t="s" s="9">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C20" s="11">
+        <v>35606</v>
+      </c>
+      <c r="D20" s="11">
+        <v>2024</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13">
+        <v>45372</v>
+      </c>
+      <c r="G20" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" ht="32.05" customHeight="1">
+      <c r="A21" t="s" s="9">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C21" s="11">
+        <v>37388</v>
+      </c>
+      <c r="D21" s="11">
+        <v>2024</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13">
+        <v>45377</v>
+      </c>
+      <c r="G21" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" ht="32.05" customHeight="1">
+      <c r="A22" t="s" s="9">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C22" s="11">
+        <v>66563</v>
+      </c>
+      <c r="D22" s="11">
+        <v>2024</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="13">
+        <v>45440</v>
+      </c>
+      <c r="G22" t="s" s="14">
+        <v>23</v>
+      </c>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" ht="32.05" customHeight="1">
+      <c r="A23" t="s" s="9">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C23" s="11">
         <v>103819</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D23" s="11">
         <v>2024</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s" s="8">
+      <c r="E23" s="12"/>
+      <c r="F23" s="13">
+        <v>45545</v>
+      </c>
+      <c r="G23" t="s" s="14">
+        <v>23</v>
+      </c>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" ht="32.05" customHeight="1">
+      <c r="A24" t="s" s="9">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="C24" s="11">
+        <v>7078</v>
+      </c>
+      <c r="D24" s="11">
+        <v>2024</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="13">
+        <v>45545</v>
+      </c>
+      <c r="G24" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" ht="32.05" customHeight="1">
+      <c r="A25" t="s" s="9">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C25" s="11">
+        <v>104339</v>
+      </c>
+      <c r="D25" s="11">
+        <v>2024</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="13">
+        <v>45546</v>
+      </c>
+      <c r="G25" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="C4" s="9">
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" ht="32.05" customHeight="1">
+      <c r="A26" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="C26" s="11">
         <v>8155</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D26" s="11">
         <v>2024</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C5" s="9">
-        <v>104339</v>
-      </c>
-      <c r="D5" s="9">
+      <c r="E26" s="12"/>
+      <c r="F26" s="13">
+        <v>45554</v>
+      </c>
+      <c r="G26" t="s" s="14">
+        <v>43</v>
+      </c>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" ht="32.05" customHeight="1">
+      <c r="A27" t="s" s="9">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="C27" s="11">
+        <v>8154</v>
+      </c>
+      <c r="D27" s="11">
         <v>2024</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s" s="8">
+      <c r="E27" s="12"/>
+      <c r="F27" s="13">
+        <v>45554</v>
+      </c>
+      <c r="G27" t="s" s="14">
+        <v>45</v>
+      </c>
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" ht="32.05" customHeight="1">
+      <c r="A28" t="s" s="9">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C28" s="11">
+        <v>118721</v>
+      </c>
+      <c r="D28" s="11">
+        <v>2024</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="13">
+        <v>45568</v>
+      </c>
+      <c r="G28" t="s" s="14">
+        <v>23</v>
+      </c>
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" ht="32.05" customHeight="1">
+      <c r="A29" t="s" s="9">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s" s="10">
+        <v>39</v>
+      </c>
+      <c r="C29" s="11">
+        <v>13697</v>
+      </c>
+      <c r="D29" s="11">
+        <v>2024</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="13">
+        <v>45580</v>
+      </c>
+      <c r="G29" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="H29" s="12"/>
+    </row>
+    <row r="30" ht="32.05" customHeight="1">
+      <c r="A30" t="s" s="9">
+        <v>48</v>
+      </c>
+      <c r="B30" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C30" s="11">
+        <v>128690</v>
+      </c>
+      <c r="D30" s="11">
+        <v>2024</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="13">
+        <v>45580</v>
+      </c>
+      <c r="G30" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="H30" s="12"/>
+    </row>
+    <row r="31" ht="32.05" customHeight="1">
+      <c r="A31" t="s" s="9">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C31" s="11">
+        <v>129983</v>
+      </c>
+      <c r="D31" s="11">
+        <v>2024</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="13">
+        <v>45581</v>
+      </c>
+      <c r="G31" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" ht="44.05" customHeight="1">
+      <c r="A32" t="s" s="9">
+        <v>50</v>
+      </c>
+      <c r="B32" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C32" s="11">
+        <v>136764</v>
+      </c>
+      <c r="D32" s="11">
+        <v>2024</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="13">
+        <v>45589</v>
+      </c>
+      <c r="G32" t="s" s="14">
+        <v>51</v>
+      </c>
+      <c r="H32" s="12"/>
+    </row>
+    <row r="33" ht="32.05" customHeight="1">
+      <c r="A33" t="s" s="9">
+        <v>52</v>
+      </c>
+      <c r="B33" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C33" s="11">
+        <v>128639</v>
+      </c>
+      <c r="D33" s="11">
+        <v>2024</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="13">
+        <v>45600</v>
+      </c>
+      <c r="G33" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="H33" s="12"/>
+    </row>
+    <row r="34" ht="32.05" customHeight="1">
+      <c r="A34" t="s" s="9">
+        <v>53</v>
+      </c>
+      <c r="B34" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C34" s="11">
+        <v>2627</v>
+      </c>
+      <c r="D34" s="11">
+        <v>2025</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="13">
+        <v>45665</v>
+      </c>
+      <c r="G34" t="s" s="14">
+        <v>23</v>
+      </c>
+      <c r="H34" s="12"/>
+    </row>
+    <row r="35" ht="32.05" customHeight="1">
+      <c r="A35" t="s" s="9">
+        <v>54</v>
+      </c>
+      <c r="B35" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C35" s="11">
+        <v>11108</v>
+      </c>
+      <c r="D35" s="11">
+        <v>2025</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="13">
+        <v>45674</v>
+      </c>
+      <c r="G35" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="H35" s="12"/>
+    </row>
+    <row r="36" ht="32.05" customHeight="1">
+      <c r="A36" t="s" s="9">
+        <v>55</v>
+      </c>
+      <c r="B36" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C36" s="11">
+        <v>66247</v>
+      </c>
+      <c r="D36" s="11">
+        <v>2025</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="13">
+        <v>45735</v>
+      </c>
+      <c r="G36" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="H36" s="12"/>
+    </row>
+    <row r="37" ht="32.05" customHeight="1">
+      <c r="A37" t="s" s="9">
+        <v>57</v>
+      </c>
+      <c r="B37" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C37" s="11">
+        <v>83109</v>
+      </c>
+      <c r="D37" s="11">
+        <v>2025</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="13">
+        <v>45751</v>
+      </c>
+      <c r="G37" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="C6" s="9">
-        <v>8154</v>
-      </c>
-      <c r="D6" s="9">
-        <v>2024</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="H37" s="12"/>
+    </row>
+    <row r="38" ht="32.05" customHeight="1">
+      <c r="A38" t="s" s="9">
+        <v>58</v>
+      </c>
+      <c r="B38" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C38" s="11">
+        <v>83768</v>
+      </c>
+      <c r="D38" s="11">
+        <v>2025</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="13">
+        <v>45754</v>
+      </c>
+      <c r="G38" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="H38" s="12"/>
+    </row>
+    <row r="39" ht="32.05" customHeight="1">
+      <c r="A39" t="s" s="9">
+        <v>59</v>
+      </c>
+      <c r="B39" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C39" s="11">
+        <v>92174</v>
+      </c>
+      <c r="D39" s="11">
+        <v>2025</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="13">
+        <v>45762</v>
+      </c>
+      <c r="G39" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="H39" s="12"/>
+    </row>
+    <row r="40" ht="32.05" customHeight="1">
+      <c r="A40" t="s" s="9">
+        <v>60</v>
+      </c>
+      <c r="B40" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="C40" s="11">
+        <v>98797</v>
+      </c>
+      <c r="D40" s="11">
+        <v>2025</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="13">
+        <v>45772</v>
+      </c>
+      <c r="G40" t="s" s="14">
+        <v>43</v>
+      </c>
+      <c r="H40" s="12"/>
+    </row>
+    <row r="41" ht="32.05" customHeight="1">
+      <c r="A41" t="s" s="9">
+        <v>61</v>
+      </c>
+      <c r="B41" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C41" s="11">
+        <v>105880</v>
+      </c>
+      <c r="D41" s="11">
+        <v>2025</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="13">
+        <v>45779</v>
+      </c>
+      <c r="G41" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="H41" s="12"/>
+    </row>
+    <row r="42" ht="32.05" customHeight="1">
+      <c r="A42" t="s" s="9">
+        <v>62</v>
+      </c>
+      <c r="B42" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C42" s="11">
+        <v>115245</v>
+      </c>
+      <c r="D42" s="11">
+        <v>2025</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="13">
+        <v>45789</v>
+      </c>
+      <c r="G42" t="s" s="14">
+        <v>12</v>
+      </c>
+      <c r="H42" s="12"/>
+    </row>
+    <row r="43" ht="32.05" customHeight="1">
+      <c r="A43" t="s" s="9">
+        <v>63</v>
+      </c>
+      <c r="B43" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C43" s="11">
         <v>154164</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D43" s="11">
         <v>2025</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C8" s="9">
-        <v>45359</v>
-      </c>
-      <c r="D8" s="9">
-        <v>2022</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="7">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C9" s="9">
-        <v>119548</v>
-      </c>
-      <c r="D9" s="9">
-        <v>2022</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C10" s="9">
-        <v>121656</v>
-      </c>
-      <c r="D10" s="9">
-        <v>2022</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="7">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s" s="8">
-        <v>20</v>
-      </c>
-      <c r="C11" s="9">
-        <v>863</v>
-      </c>
-      <c r="D11" s="9">
-        <v>2023</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C12" s="9">
-        <v>35606</v>
-      </c>
-      <c r="D12" s="9">
-        <v>2024</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="7">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="C13" s="9">
-        <v>3590</v>
-      </c>
-      <c r="D13" s="9">
-        <v>2023</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C14" s="9">
-        <v>37388</v>
-      </c>
-      <c r="D14" s="9">
-        <v>2024</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="7">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C15" s="9">
-        <v>83768</v>
-      </c>
-      <c r="D15" s="9">
+      <c r="E43" s="12"/>
+      <c r="F43" s="13">
+        <v>45828</v>
+      </c>
+      <c r="G43" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="H43" s="12"/>
+    </row>
+    <row r="44" ht="32.05" customHeight="1">
+      <c r="A44" t="s" s="9">
+        <v>64</v>
+      </c>
+      <c r="B44" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C44" s="11">
+        <v>194682</v>
+      </c>
+      <c r="D44" s="11">
         <v>2025</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C16" s="9">
-        <v>83109</v>
-      </c>
-      <c r="D16" s="9">
+      <c r="E44" s="12"/>
+      <c r="F44" s="13">
+        <v>45868</v>
+      </c>
+      <c r="G44" t="s" s="14">
+        <v>10</v>
+      </c>
+      <c r="H44" s="12"/>
+    </row>
+    <row r="45" ht="32.05" customHeight="1">
+      <c r="A45" t="s" s="9">
+        <v>65</v>
+      </c>
+      <c r="B45" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C45" s="11">
+        <v>200457</v>
+      </c>
+      <c r="D45" s="11">
         <v>2025</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C17" s="9">
-        <v>127165</v>
-      </c>
-      <c r="D17" s="9">
-        <v>2022</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C18" s="9">
-        <v>128639</v>
-      </c>
-      <c r="D18" s="9">
-        <v>2022</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C19" s="9">
-        <v>118721</v>
-      </c>
-      <c r="D19" s="9">
-        <v>2024</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="B20" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C20" s="9">
-        <v>2627</v>
-      </c>
-      <c r="D20" s="9">
+      <c r="E45" s="12"/>
+      <c r="F45" s="13">
+        <v>45876</v>
+      </c>
+      <c r="G45" t="s" s="14">
+        <v>12</v>
+      </c>
+      <c r="H45" s="12"/>
+    </row>
+    <row r="46" ht="20.05" customHeight="1">
+      <c r="A46" t="s" s="9">
+        <v>66</v>
+      </c>
+      <c r="B46" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C46" s="11">
+        <v>70927</v>
+      </c>
+      <c r="D46" s="11">
         <v>2025</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="B21" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C21" s="9">
-        <v>98797</v>
-      </c>
-      <c r="D21" s="9">
-        <v>2025</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="B22" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C22" s="9">
-        <v>115245</v>
-      </c>
-      <c r="D22" s="9">
-        <v>2025</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="B23" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C23" s="9">
-        <v>194682</v>
-      </c>
-      <c r="D23" s="9">
-        <v>2025</v>
-      </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="B24" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="C24" s="9">
-        <v>46666</v>
-      </c>
-      <c r="D24" s="9">
-        <v>2023</v>
-      </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="B25" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C25" s="9">
-        <v>44181</v>
-      </c>
-      <c r="D25" s="9">
-        <v>2023</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="B26" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C26" s="9">
-        <v>16304</v>
-      </c>
-      <c r="D26" s="9">
-        <v>2023</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="B27" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C27" s="9">
-        <v>200457</v>
-      </c>
-      <c r="D27" s="9">
-        <v>2025</v>
-      </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="B28" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C28" s="9">
-        <v>499</v>
-      </c>
-      <c r="D28" s="9">
-        <v>2024</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-    </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="B29" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C29" s="9">
-        <v>66563</v>
-      </c>
-      <c r="D29" s="9">
-        <v>2024</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-    </row>
-    <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="7">
-        <v>41</v>
-      </c>
-      <c r="B30" t="s" s="8">
-        <v>42</v>
-      </c>
-      <c r="C30" s="9">
-        <v>7078</v>
-      </c>
-      <c r="D30" s="9">
-        <v>2024</v>
-      </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" t="s" s="7">
-        <v>43</v>
-      </c>
-      <c r="B31" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C31" s="9">
-        <v>92174</v>
-      </c>
-      <c r="D31" s="9">
-        <v>2025</v>
-      </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" t="s" s="7">
-        <v>44</v>
-      </c>
-      <c r="B32" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C32" s="9">
-        <v>52527</v>
-      </c>
-      <c r="D32" s="9">
-        <v>2023</v>
-      </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-    </row>
-    <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" t="s" s="7">
-        <v>45</v>
-      </c>
-      <c r="B33" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C33" s="9">
-        <v>8973</v>
-      </c>
-      <c r="D33" s="9">
-        <v>2023</v>
-      </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-    </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="B34" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C34" s="9">
-        <v>39008</v>
-      </c>
-      <c r="D34" s="9">
-        <v>2023</v>
-      </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" t="s" s="7">
-        <v>47</v>
-      </c>
-      <c r="B35" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C35" s="9">
-        <v>11108</v>
-      </c>
-      <c r="D35" s="9">
-        <v>2025</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-    </row>
-    <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="B36" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C36" s="9">
-        <v>132783</v>
-      </c>
-      <c r="D36" s="9">
-        <v>2022</v>
-      </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-    </row>
-    <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" t="s" s="7">
-        <v>49</v>
-      </c>
-      <c r="B37" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C37" s="9">
-        <v>25898</v>
-      </c>
-      <c r="D37" s="9">
-        <v>2024</v>
-      </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-    </row>
-    <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" t="s" s="7">
-        <v>50</v>
-      </c>
-      <c r="B38" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="C38" s="9">
-        <v>18012</v>
-      </c>
-      <c r="D38" s="9">
-        <v>2024</v>
-      </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-    </row>
-    <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" t="s" s="7">
-        <v>51</v>
-      </c>
-      <c r="B39" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C39" s="9">
-        <v>136764</v>
-      </c>
-      <c r="D39" s="9">
-        <v>2024</v>
-      </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-    </row>
-    <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="B40" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="C40" s="9">
-        <v>63010</v>
-      </c>
-      <c r="D40" s="9">
-        <v>2023</v>
-      </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-    </row>
-    <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="B41" t="s" s="8">
-        <v>42</v>
-      </c>
-      <c r="C41" s="9">
-        <v>13697</v>
-      </c>
-      <c r="D41" s="9">
-        <v>2024</v>
-      </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-    </row>
-    <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" t="s" s="7">
-        <v>54</v>
-      </c>
-      <c r="B42" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C42" s="9">
-        <v>128690</v>
-      </c>
-      <c r="D42" s="9">
-        <v>2024</v>
-      </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-    </row>
-    <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" t="s" s="7">
-        <v>55</v>
-      </c>
-      <c r="B43" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C43" s="9">
-        <v>129983</v>
-      </c>
-      <c r="D43" s="9">
-        <v>2024</v>
-      </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-    </row>
-    <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" t="s" s="7">
-        <v>56</v>
-      </c>
-      <c r="B44" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C44" s="9">
-        <v>70927</v>
-      </c>
-      <c r="D44" s="9">
-        <v>2025</v>
-      </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-    </row>
-    <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" s="11"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-    </row>
-    <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
     </row>
     <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" s="11"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
     </row>
     <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" s="11"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
     </row>
     <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" s="11"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
     </row>
     <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" s="11"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
     </row>
     <row r="51" ht="20.05" customHeight="1">
-      <c r="A51" s="11"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
     </row>
     <row r="52" ht="20.05" customHeight="1">
-      <c r="A52" s="11"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
     </row>
     <row r="53" ht="20.05" customHeight="1">
-      <c r="A53" s="11"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
+      <c r="A53" s="15"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
     </row>
     <row r="54" ht="20.05" customHeight="1">
-      <c r="A54" s="11"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
     </row>
     <row r="55" ht="20.05" customHeight="1">
-      <c r="A55" s="11"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
+      <c r="A55" s="15"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
     </row>
     <row r="56" ht="20.05" customHeight="1">
-      <c r="A56" s="11"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
     </row>
     <row r="57" ht="20.05" customHeight="1">
-      <c r="A57" s="11"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
     </row>
     <row r="58" ht="20.05" customHeight="1">
-      <c r="A58" s="11"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+    </row>
+    <row r="59" ht="20.05" customHeight="1">
+      <c r="A59" s="15"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+    </row>
+    <row r="60" ht="20.05" customHeight="1">
+      <c r="A60" s="15"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/SOLON_INPUT.xlsx
+++ b/SOLON_INPUT.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
   <si>
     <t>Πελάτης</t>
   </si>
@@ -37,7 +37,52 @@
     <t>Αποτέλεσμα Συζήτησης</t>
   </si>
   <si>
-    <t>ΤΣΙΡΟΠΟΥΛΟΥ ΣΤΑΜΑΤΙΑ</t>
+    <t>Αριθμός Πινακίου</t>
+  </si>
+  <si>
+    <t>Αντικείμενο</t>
+  </si>
+  <si>
+    <t>Ημ. Δημιουργίας</t>
+  </si>
+  <si>
+    <t>Είδος Διαφοράς</t>
+  </si>
+  <si>
+    <t>Αντίδικος</t>
+  </si>
+  <si>
+    <t>Δικάσιμος</t>
+  </si>
+  <si>
+    <t>Σταθερό Τηλέφωνο</t>
+  </si>
+  <si>
+    <t>Κινητό Τηλέφωνο</t>
+  </si>
+  <si>
+    <t>Email1</t>
+  </si>
+  <si>
+    <t>Email2</t>
+  </si>
+  <si>
+    <t>Είδος Πελάτη</t>
+  </si>
+  <si>
+    <t>Σημειώσεις</t>
+  </si>
+  <si>
+    <t>Contacts Notes</t>
+  </si>
+  <si>
+    <t>Εσωτερικός Δικηγόρος</t>
+  </si>
+  <si>
+    <t>Αντίδικος Δικηγόρος</t>
+  </si>
+  <si>
+    <t>ΤΣΙΡΟΠΟΥΛΟΥ ΣΤΑΜΑΤΙΑ ν ΜΠΟΖΙΚΑΣ</t>
   </si>
   <si>
     <t>ΠΡΩΤΟΔΙΚΕΙΟ ΑΘΗΝΩΝ</t>
@@ -46,40 +91,40 @@
     <t>ΝΕΑ ΤΑΚΤΙΚΗ ΜΟΝΟΜΕΛΟΥΣ</t>
   </si>
   <si>
-    <t>ΒΑΚΑΛΟΠΟΥΛΟΥ ΔΕΔΔΗΕ</t>
+    <t>ΒΑΚΑΛΟΠΟΥΛΟΥ ν ΔΕΔΔΗΕ</t>
   </si>
   <si>
     <t>ΑΣΦΑΛΙΣΤΙΚΑ ΜΕΤΡΑ ΜΟΝΟΜΕΛΕΣ</t>
   </si>
   <si>
-    <t>ΚΑΚΑΛΗΣ ΚΩΣΤΑΣ</t>
-  </si>
-  <si>
-    <t>ΜΑΤΣΙΩΤΑΣ</t>
-  </si>
-  <si>
-    <t>ΚΑΣΙΔΑΚΗ</t>
-  </si>
-  <si>
-    <t>ΜΑΡΓΑΡΙΤΗ ΑΛΕΞΙΑ</t>
-  </si>
-  <si>
-    <t>ΛΙΖΟΣ ΚΩΣΤΑΣ</t>
-  </si>
-  <si>
-    <t>ΒΑΚΑΛΟΠΟΥΛΟΥ ΧΕΙΡΔΑΡΗ</t>
+    <t>ΚΑΚΑΛΗΣ ΚΩΣΤΑΣ ν Εθνική</t>
+  </si>
+  <si>
+    <t>ΜΑΤΣΙΩΤΑΣ ΘΑΝΑΣΗΣ ν ALPHA</t>
+  </si>
+  <si>
+    <t>ΚΑΣΙΔΑΚΗ ΡΟΝΤΙΚΑ ν ΤΣΑΓΚΑΡΑΚΗ</t>
+  </si>
+  <si>
+    <t>ΜΑΡΓΑΡΙΤΗ ΑΛΕΞΙΑ ν ΜΕΓΑΡΙΩΤΗ</t>
+  </si>
+  <si>
+    <t>ΛΙΖΟΣ ΚΩΣΤΑΣ ν ΜΟΝΟΚΡΟΥΣΟΣ</t>
+  </si>
+  <si>
+    <t>ΒΑΚΑΛΟΠΟΥΛΟΥ ν ΧΕΙΡΔΑΡΗ</t>
   </si>
   <si>
     <t>ΕΙΡΗΝΟΔΙΚΕΙΟ ΧΑΛΑΝΔΡΙΟΥ</t>
   </si>
   <si>
-    <t>ΒΕΒΕΛΟΓΙΑΝΝΗΣ ν Γκιτάκος</t>
+    <t>ΒΕΒΕΛΟΓΙΑΝΝΗΣ ΠΑΝ ν Γκιτάκος</t>
   </si>
   <si>
     <t>ΠΕΡΓΑΝΤΗΣ ΣΤΕΛΙΟΣ ν Eurobank</t>
   </si>
   <si>
-    <t>ΜΑΘΙΟΥ</t>
+    <t>ΜΑΘΙΟΥ ΚΑΛΙΟΠΠΗ ν VERALTIS AE</t>
   </si>
   <si>
     <t>ΝΕΑ ΤΑΚΤΙΚΗ ΠΟΛΥΜΕΛΟΥΣ</t>
@@ -91,7 +136,7 @@
     <t>ΕΙΡΗΝΟΔΙΚΕΙΟ ΑΘΗΝΩΝ</t>
   </si>
   <si>
-    <t>ΓΙΑΝΝΑΚΟΠΟΥΛΟΥ</t>
+    <t>ΓΙΑΝΝΑΚΟΠΟΥΛΟΥ ΙΣΜΗΝΗ ν ΔΕΔΔΗΕ</t>
   </si>
   <si>
     <t>ΕΙΡΗΝΟΔΙΚΕΙΟ ΚΡΩΠΙΑΣ</t>
@@ -100,43 +145,43 @@
     <t>ΜΙΚΡΟΔΙΑΦΟΡΕΣ</t>
   </si>
   <si>
-    <t>ΧΡΥΣΙΚΟΣ ν ΕθνικήΤραπ</t>
-  </si>
-  <si>
-    <t>ΕΥΔΟΚΙΜΟΣ ΡΟΥΜΑΝΙΑ</t>
-  </si>
-  <si>
-    <t>ΜΑΡΚΟΓΛΟΥ ν Πειραιώς</t>
-  </si>
-  <si>
-    <t>ΤΖΑΡΑ vs ΕΤΕ</t>
-  </si>
-  <si>
-    <t>ΜΑΛΤΕΖΟΣ vs BALL</t>
-  </si>
-  <si>
-    <t>ΜΑΝΤΖΑΡΗ ν Eurobank</t>
-  </si>
-  <si>
-    <t>ΣΕΡΕΤΗ ΓΙΩΤΑ</t>
-  </si>
-  <si>
-    <t>ΧΑΤΖΗ</t>
-  </si>
-  <si>
-    <t>ΠΕΤΥΧΑΚΗΣ ΜΙΧΑΛΗΣ</t>
-  </si>
-  <si>
-    <t>ΜΠΙΣΑΛΑ ΠΕΝΥ</t>
+    <t>ΧΡΥΣΙΚΟΣ ΧΡΗΣΤΟΣ ν ΕθνικήΤραπ</t>
+  </si>
+  <si>
+    <t>ΕΥΔΟΚΙΜΟΣ ν ΡΟΥΜΑΝΙΚΗΣ ΕΤΑΙΡΙΑΣ</t>
+  </si>
+  <si>
+    <t>ΜΑΡΚΟΓΛΟΥ ΝΙΚΟΣ ν Πειραιώς</t>
+  </si>
+  <si>
+    <t>ΤΖΑΡΑ ΚΥΡΙΑΚΟΥΛΑ vs ΕΤΕ</t>
+  </si>
+  <si>
+    <t>ΜΑΛΤΕΖΟΣ ΓΙΩΡΓΟΣ vs BALL</t>
+  </si>
+  <si>
+    <t>ΜΑΝΤΖΑΡΗ ΓΙΩΤΑ ν Eurobank</t>
+  </si>
+  <si>
+    <t>ΣΕΡΕΤΗ ΓΙΩΤΑ ν ΣΕΡΕΤΗΣ ΑΝΤΩΝΗ</t>
+  </si>
+  <si>
+    <t>ΧΑΤΖΗ ΑΝΑΣΤΑΣΙΑ ν Συνιδιοκτησίας</t>
+  </si>
+  <si>
+    <t>ΠΕΤΥΧΑΚΗΣ ΜΙΧΑΛΗΣ ν ΚΟΡΑΚΙΤΗ</t>
+  </si>
+  <si>
+    <t>ΜΠΙΣΑΛΑ ΠΕΝΥ ν ΚΟΥΝΙΩΤΗ ΑΘΗΝΑ</t>
   </si>
   <si>
     <t>ΠΡΩΤΟΔΙΚΕΙΟ ΠΕΙΡΑΙΑ</t>
   </si>
   <si>
-    <t>ΜΠΑΣΔΕΚΗΣ ΚΩΣΤΑΣ</t>
-  </si>
-  <si>
-    <t>ΚΑΡΑΤΖΑΦΕΡΗΣ ΒΑΣΙΛΗΣ</t>
+    <t>ΜΠΑΣΔΕΚΗΣ ΚΩΣΤΑΣ ν Αλεξόπουλος. Ανάκληση</t>
+  </si>
+  <si>
+    <t>ΚΑΡΑΤΖΑΦΕΡΗΣ ΒΑΣΙΛΗΣ ν ΔΗΜΟΣΙΟΥ</t>
   </si>
   <si>
     <t>ΕΦΕΤΕΙΟ ΑΘΗΝΩΝ</t>
@@ -151,67 +196,67 @@
     <t>ΤΑΚΤΙΚΗ ΜΟΝΟΜΕΛΟΥΣ</t>
   </si>
   <si>
-    <t>ΣΠΥΡΟΠΟΥΛΟΣ</t>
-  </si>
-  <si>
-    <t>ΧΡΥΣΙΚΟΣ v ΠΑΠΠΑΣ</t>
-  </si>
-  <si>
-    <t>ΠΑΝΑΓΙΩΤΑΚΟΠΟΥΛΟΣ</t>
-  </si>
-  <si>
-    <t>ΤΣΕΒΗΣ ν Eurobank</t>
-  </si>
-  <si>
-    <t>ΤΟΥΝΤΑ ΚΑΤΕΡΙΝΑ</t>
+    <t>ΣΠΥΡΟΠΟΥΛΟΣ ΓΙΑΝΝΗΣ ν Τσαντοπούλου</t>
+  </si>
+  <si>
+    <t>ΧΡΥΣΙΚΟΣ ΧΡΗΣΤΟΣ v ΠΑΠΠΑΣ</t>
+  </si>
+  <si>
+    <t>ΠΑΝΑΓΙΩΤΑΚΟΠΟΥΛΟΣ ΗΛΙΑΣ</t>
+  </si>
+  <si>
+    <t>ΤΣΕΒΗΣ ΘΩΜΑΣ ν Eurobank</t>
+  </si>
+  <si>
+    <t>ΤΟΥΝΤΑ ΚΑΤΕΡΙΝΑ ν Αγγελικής</t>
   </si>
   <si>
     <t>ΜΙΣΘΩΣΕΙΣ - ΠΕΡΙΟΥΣΙΑΚΕΣ ΔΙΑΦΟΡΕΣ</t>
   </si>
   <si>
-    <t>ΜΠΕΓΙΑΣ ΘΕΟΔΩΡΟΣ</t>
-  </si>
-  <si>
-    <t>ΜΑΡΚΟΥΛΗΣ</t>
-  </si>
-  <si>
-    <t>ΒΕΒΕΛΟΓΙΑΝΝΗΣ ν Δημητρακάκης</t>
-  </si>
-  <si>
-    <t>ΠΑΠΑΔΟΠΟΥΛΟΥ ΕΛΕΝΑ</t>
+    <t>ΜΠΕΓΙΑΣ ΘΕΟΔΩΡΟΣ ν ΔΗΜΟΣΙΟΥ</t>
+  </si>
+  <si>
+    <t>ΜΑΡΚΟΥΛΗΣ ΜΙΧΑΛΗΣ Κλήση</t>
+  </si>
+  <si>
+    <t>ΒΕΒΕΛΟΓΙΑΝΝΗΣ ΠΑΝ ν Δημητρακάκης</t>
+  </si>
+  <si>
+    <t>ΠΑΠΑΔΟΠΟΥΛΟΥ ΕΛΕΝΑ ν ΕΚΟΥΣΙΑ</t>
   </si>
   <si>
     <t>ΕΚΟΥΣΙΑ ΜΟΝΟΜΕΛΟΥΣ</t>
   </si>
   <si>
-    <t>ΠΑΥΛΗ ΕΥΑΓΓΕΛΙΑ</t>
-  </si>
-  <si>
-    <t>ΓΟΥΛΑΣ ΠΑΝΟΣ</t>
-  </si>
-  <si>
-    <t>ΚΟΥΤΣΟΥΜΠΑΣ</t>
-  </si>
-  <si>
-    <t>ΚΟΥΤΣΙΟΣ</t>
-  </si>
-  <si>
-    <t>ΖΑΧΑΡΟΠΟΥΛΟΣ ΜΠΑΜΠΗΣ</t>
-  </si>
-  <si>
-    <t>ΚΥΡΙΑΖΗΣ</t>
+    <t>ΠΑΥΛΗ ΕΥΑΓΓΕΛΙΑ ν Παγώνα</t>
+  </si>
+  <si>
+    <t>ΓΟΥΛΑΣ ΠΑΝΟΣ ν Γιάννη</t>
+  </si>
+  <si>
+    <t>ΚΟΥΤΣΟΥΜΠΑΣ ΒΑΓΓΕΛΗΣ ν ΜΟΛΑΚΙΔΗΣ ΑΓΓΕΛΟΣ</t>
+  </si>
+  <si>
+    <t>ΚΟΥΤΣΙΟΣ ΧΡΗΣΤΟΣ ν ΕΘΝΙΚΗ</t>
+  </si>
+  <si>
+    <t>ΖΑΧΑΡΟΠΟΥΛΟΣ ΜΠΑΜΠΗΣ ν Μαρία</t>
+  </si>
+  <si>
+    <t>ΚΥΡΙΑΖΗΣ ΘΩΜΑΣ ν Πετρωνίου</t>
   </si>
   <si>
     <t>ΣΕΪΜΕΝΗΣ ΓΙΑΝΝΗΣ ν Παπαδημητρίου</t>
   </si>
   <si>
-    <t>ΛΑΜΠΡΟΠΟΥΛΟΣ</t>
-  </si>
-  <si>
-    <t>ΠΑΠΑΔΑΣΚΑΛΟΠΟΥΛΟΥ</t>
-  </si>
-  <si>
-    <t>ΔΟΚΙΜΗ RUN OF SOLON_AUTO</t>
+    <t>ΛΑΜΠΡΟΠΟΥΛΟΣ ΤΑΣΟΣ ν ΔΗΜΟΣΙΟΥ</t>
+  </si>
+  <si>
+    <t>ΠΑΠΑΔΑΣΚΑΛΟΠΟΥΛΟΥ ΚΑΤ ν ΔΕΔΔΗΕ</t>
+  </si>
+  <si>
+    <t>SUCCESSFUL RUN OF SOLON_AUTO</t>
   </si>
 </sst>
 </file>
@@ -1480,7 +1525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:W61"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1492,8 +1537,9 @@
     <col min="2" max="2" width="24.0234" style="1" customWidth="1"/>
     <col min="3" max="6" width="16.3516" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.8984" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.3516" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="8" max="15" width="16.3516" style="1" customWidth="1"/>
+    <col min="16" max="23" width="13.8672" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="44.25" customHeight="1">
@@ -1521,13 +1567,58 @@
       <c r="H1" t="s" s="2">
         <v>7</v>
       </c>
+      <c r="I1" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="2" ht="32.25" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s" s="4">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C2" s="5">
         <v>45359</v>
@@ -1540,16 +1631,31 @@
         <v>44695</v>
       </c>
       <c r="G2" t="s" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
     </row>
     <row r="3" ht="32.05" customHeight="1">
       <c r="A3" t="s" s="9">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s" s="10">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C3" s="11">
         <v>119548</v>
@@ -1562,16 +1668,31 @@
         <v>44895</v>
       </c>
       <c r="G3" t="s" s="14">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
     </row>
     <row r="4" ht="32.05" customHeight="1">
       <c r="A4" t="s" s="9">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s" s="10">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C4" s="11">
         <v>121656</v>
@@ -1584,16 +1705,31 @@
         <v>44900</v>
       </c>
       <c r="G4" t="s" s="14">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
     </row>
     <row r="5" ht="32.05" customHeight="1">
       <c r="A5" t="s" s="9">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s" s="10">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C5" s="11">
         <v>127165</v>
@@ -1606,16 +1742,31 @@
         <v>44912</v>
       </c>
       <c r="G5" t="s" s="14">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
     </row>
     <row r="6" ht="32.05" customHeight="1">
       <c r="A6" t="s" s="9">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s" s="10">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C6" s="11">
         <v>128639</v>
@@ -1628,16 +1779,31 @@
         <v>44915</v>
       </c>
       <c r="G6" t="s" s="14">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
     </row>
     <row r="7" ht="32.05" customHeight="1">
       <c r="A7" t="s" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s" s="10">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C7" s="11">
         <v>132783</v>
@@ -1650,16 +1816,31 @@
         <v>44926</v>
       </c>
       <c r="G7" t="s" s="14">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
     </row>
     <row r="8" ht="32.05" customHeight="1">
       <c r="A8" t="s" s="9">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s" s="10">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C8" s="11">
         <v>16304</v>
@@ -1672,16 +1853,31 @@
         <v>44967</v>
       </c>
       <c r="G8" t="s" s="14">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
     </row>
     <row r="9" ht="32.05" customHeight="1">
       <c r="A9" t="s" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s" s="10">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C9" s="11">
         <v>863</v>
@@ -1694,16 +1890,31 @@
         <v>44972</v>
       </c>
       <c r="G9" t="s" s="14">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
     </row>
     <row r="10" ht="32.05" customHeight="1">
       <c r="A10" t="s" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s" s="10">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C10" s="11">
         <v>39008</v>
@@ -1716,16 +1927,31 @@
         <v>45020</v>
       </c>
       <c r="G10" t="s" s="14">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
     </row>
     <row r="11" ht="32.05" customHeight="1">
       <c r="A11" t="s" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s" s="10">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C11" s="11">
         <v>44181</v>
@@ -1738,16 +1964,31 @@
         <v>45036</v>
       </c>
       <c r="G11" t="s" s="14">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
     </row>
     <row r="12" ht="32.05" customHeight="1">
       <c r="A12" t="s" s="9">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s" s="10">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C12" s="11">
         <v>52527</v>
@@ -1760,16 +2001,31 @@
         <v>45058</v>
       </c>
       <c r="G12" t="s" s="14">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
     </row>
     <row r="13" ht="32.05" customHeight="1">
       <c r="A13" t="s" s="9">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s" s="10">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C13" s="11">
         <v>46666</v>
@@ -1782,16 +2038,31 @@
         <v>45081</v>
       </c>
       <c r="G13" t="s" s="14">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="9">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s" s="10">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C14" s="11">
         <v>3590</v>
@@ -1804,16 +2075,31 @@
         <v>45119</v>
       </c>
       <c r="G14" t="s" s="14">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
     </row>
     <row r="15" ht="32.05" customHeight="1">
       <c r="A15" t="s" s="9">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s" s="10">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C15" s="11">
         <v>63010</v>
@@ -1826,16 +2112,31 @@
         <v>45129</v>
       </c>
       <c r="G15" t="s" s="14">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
     </row>
     <row r="16" ht="32.05" customHeight="1">
       <c r="A16" t="s" s="9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s" s="10">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C16" s="11">
         <v>499</v>
@@ -1848,16 +2149,31 @@
         <v>45294</v>
       </c>
       <c r="G16" t="s" s="14">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
     </row>
     <row r="17" ht="32.05" customHeight="1">
       <c r="A17" t="s" s="9">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s" s="10">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C17" s="11">
         <v>8973</v>
@@ -1870,16 +2186,31 @@
         <v>45314</v>
       </c>
       <c r="G17" t="s" s="14">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
     </row>
     <row r="18" ht="32.05" customHeight="1">
       <c r="A18" t="s" s="9">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s" s="10">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C18" s="11">
         <v>25898</v>
@@ -1892,16 +2223,31 @@
         <v>45351</v>
       </c>
       <c r="G18" t="s" s="14">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
     </row>
     <row r="19" ht="32.05" customHeight="1">
       <c r="A19" t="s" s="9">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s" s="10">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C19" s="11">
         <v>18012</v>
@@ -1914,16 +2260,31 @@
         <v>45351</v>
       </c>
       <c r="G19" t="s" s="14">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
     </row>
     <row r="20" ht="32.05" customHeight="1">
       <c r="A20" t="s" s="9">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s" s="10">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C20" s="11">
         <v>35606</v>
@@ -1936,16 +2297,31 @@
         <v>45372</v>
       </c>
       <c r="G20" t="s" s="14">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
     </row>
     <row r="21" ht="32.05" customHeight="1">
       <c r="A21" t="s" s="9">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s" s="10">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C21" s="11">
         <v>37388</v>
@@ -1958,16 +2334,31 @@
         <v>45377</v>
       </c>
       <c r="G21" t="s" s="14">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
     </row>
     <row r="22" ht="32.05" customHeight="1">
       <c r="A22" t="s" s="9">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s" s="10">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C22" s="11">
         <v>66563</v>
@@ -1980,16 +2371,31 @@
         <v>45440</v>
       </c>
       <c r="G22" t="s" s="14">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
     </row>
     <row r="23" ht="32.05" customHeight="1">
       <c r="A23" t="s" s="9">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s" s="10">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C23" s="11">
         <v>103819</v>
@@ -2002,19 +2408,34 @@
         <v>45545</v>
       </c>
       <c r="G23" t="s" s="14">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
     </row>
     <row r="24" ht="32.05" customHeight="1">
       <c r="A24" t="s" s="9">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s" s="10">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C24" s="11">
-        <v>7078</v>
+        <v>10452</v>
       </c>
       <c r="D24" s="11">
         <v>2024</v>
@@ -2024,63 +2445,108 @@
         <v>45545</v>
       </c>
       <c r="G24" t="s" s="14">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
     </row>
     <row r="25" ht="32.05" customHeight="1">
       <c r="A25" t="s" s="9">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s" s="10">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="C25" s="11">
-        <v>104339</v>
+        <v>7078</v>
       </c>
       <c r="D25" s="11">
         <v>2024</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="13">
-        <v>45546</v>
+        <v>45456</v>
       </c>
       <c r="G25" t="s" s="14">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
     </row>
     <row r="26" ht="32.05" customHeight="1">
       <c r="A26" t="s" s="9">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s" s="10">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C26" s="11">
-        <v>8155</v>
+        <v>104339</v>
       </c>
       <c r="D26" s="11">
         <v>2024</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="13">
-        <v>45554</v>
+        <v>45546</v>
       </c>
       <c r="G26" t="s" s="14">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
     </row>
     <row r="27" ht="32.05" customHeight="1">
       <c r="A27" t="s" s="9">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s" s="10">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C27" s="11">
-        <v>8154</v>
+        <v>8155</v>
       </c>
       <c r="D27" s="11">
         <v>2024</v>
@@ -2090,63 +2556,108 @@
         <v>45554</v>
       </c>
       <c r="G27" t="s" s="14">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
     </row>
     <row r="28" ht="32.05" customHeight="1">
       <c r="A28" t="s" s="9">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s" s="10">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="C28" s="11">
-        <v>118721</v>
+        <v>8154</v>
       </c>
       <c r="D28" s="11">
         <v>2024</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="13">
-        <v>45568</v>
+        <v>45554</v>
       </c>
       <c r="G28" t="s" s="14">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
     </row>
     <row r="29" ht="32.05" customHeight="1">
       <c r="A29" t="s" s="9">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s" s="10">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C29" s="11">
-        <v>13697</v>
+        <v>118721</v>
       </c>
       <c r="D29" s="11">
         <v>2024</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="13">
-        <v>45580</v>
+        <v>45568</v>
       </c>
       <c r="G29" t="s" s="14">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
     </row>
     <row r="30" ht="32.05" customHeight="1">
       <c r="A30" t="s" s="9">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s" s="10">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="C30" s="11">
-        <v>128690</v>
+        <v>13697</v>
       </c>
       <c r="D30" s="11">
         <v>2024</v>
@@ -2156,367 +2667,649 @@
         <v>45580</v>
       </c>
       <c r="G30" t="s" s="14">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
     </row>
     <row r="31" ht="32.05" customHeight="1">
       <c r="A31" t="s" s="9">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s" s="10">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C31" s="11">
-        <v>129983</v>
+        <v>128690</v>
       </c>
       <c r="D31" s="11">
         <v>2024</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="13">
-        <v>45581</v>
+        <v>45580</v>
       </c>
       <c r="G31" t="s" s="14">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H31" s="12"/>
-    </row>
-    <row r="32" ht="44.05" customHeight="1">
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+    </row>
+    <row r="32" ht="32.05" customHeight="1">
       <c r="A32" t="s" s="9">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s" s="10">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C32" s="11">
-        <v>136764</v>
+        <v>129983</v>
       </c>
       <c r="D32" s="11">
         <v>2024</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="13">
-        <v>45589</v>
+        <v>45581</v>
       </c>
       <c r="G32" t="s" s="14">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="H32" s="12"/>
-    </row>
-    <row r="33" ht="32.05" customHeight="1">
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+    </row>
+    <row r="33" ht="44.05" customHeight="1">
       <c r="A33" t="s" s="9">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s" s="10">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C33" s="11">
-        <v>128639</v>
+        <v>136764</v>
       </c>
       <c r="D33" s="11">
         <v>2024</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="13">
-        <v>45600</v>
+        <v>45589</v>
       </c>
       <c r="G33" t="s" s="14">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
     </row>
     <row r="34" ht="32.05" customHeight="1">
       <c r="A34" t="s" s="9">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s" s="10">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C34" s="11">
-        <v>2627</v>
+        <v>128639</v>
       </c>
       <c r="D34" s="11">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="13">
-        <v>45665</v>
+        <v>45600</v>
       </c>
       <c r="G34" t="s" s="14">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
     </row>
     <row r="35" ht="32.05" customHeight="1">
       <c r="A35" t="s" s="9">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s" s="10">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C35" s="11">
-        <v>11108</v>
+        <v>2627</v>
       </c>
       <c r="D35" s="11">
         <v>2025</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="13">
-        <v>45674</v>
+        <v>45665</v>
       </c>
       <c r="G35" t="s" s="14">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
     </row>
     <row r="36" ht="32.05" customHeight="1">
       <c r="A36" t="s" s="9">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s" s="10">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C36" s="11">
-        <v>66247</v>
+        <v>11108</v>
       </c>
       <c r="D36" s="11">
         <v>2025</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="13">
-        <v>45735</v>
+        <v>45674</v>
       </c>
       <c r="G36" t="s" s="14">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
     </row>
     <row r="37" ht="32.05" customHeight="1">
       <c r="A37" t="s" s="9">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s" s="10">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C37" s="11">
-        <v>83109</v>
+        <v>66247</v>
       </c>
       <c r="D37" s="11">
         <v>2025</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="13">
-        <v>45751</v>
+        <v>45735</v>
       </c>
       <c r="G37" t="s" s="14">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
     </row>
     <row r="38" ht="32.05" customHeight="1">
       <c r="A38" t="s" s="9">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s" s="10">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C38" s="11">
-        <v>83768</v>
+        <v>83109</v>
       </c>
       <c r="D38" s="11">
         <v>2025</v>
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="13">
-        <v>45754</v>
+        <v>45751</v>
       </c>
       <c r="G38" t="s" s="14">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
     </row>
     <row r="39" ht="32.05" customHeight="1">
       <c r="A39" t="s" s="9">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B39" t="s" s="10">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C39" s="11">
-        <v>92174</v>
+        <v>83768</v>
       </c>
       <c r="D39" s="11">
         <v>2025</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="13">
-        <v>45762</v>
+        <v>45754</v>
       </c>
       <c r="G39" t="s" s="14">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
     </row>
     <row r="40" ht="32.05" customHeight="1">
       <c r="A40" t="s" s="9">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B40" t="s" s="10">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C40" s="11">
-        <v>98797</v>
+        <v>92174</v>
       </c>
       <c r="D40" s="11">
         <v>2025</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="13">
-        <v>45772</v>
+        <v>45762</v>
       </c>
       <c r="G40" t="s" s="14">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
     </row>
     <row r="41" ht="32.05" customHeight="1">
       <c r="A41" t="s" s="9">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B41" t="s" s="10">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="C41" s="11">
-        <v>105880</v>
+        <v>98797</v>
       </c>
       <c r="D41" s="11">
         <v>2025</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="13">
-        <v>45779</v>
+        <v>45772</v>
       </c>
       <c r="G41" t="s" s="14">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
     </row>
     <row r="42" ht="32.05" customHeight="1">
       <c r="A42" t="s" s="9">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B42" t="s" s="10">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C42" s="11">
-        <v>115245</v>
+        <v>105880</v>
       </c>
       <c r="D42" s="11">
         <v>2025</v>
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="13">
-        <v>45789</v>
+        <v>45779</v>
       </c>
       <c r="G42" t="s" s="14">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
     </row>
     <row r="43" ht="32.05" customHeight="1">
       <c r="A43" t="s" s="9">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B43" t="s" s="10">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C43" s="11">
-        <v>154164</v>
+        <v>115245</v>
       </c>
       <c r="D43" s="11">
         <v>2025</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="13">
-        <v>45828</v>
+        <v>45789</v>
       </c>
       <c r="G43" t="s" s="14">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
     </row>
     <row r="44" ht="32.05" customHeight="1">
       <c r="A44" t="s" s="9">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B44" t="s" s="10">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C44" s="11">
-        <v>194682</v>
+        <v>154164</v>
       </c>
       <c r="D44" s="11">
         <v>2025</v>
       </c>
       <c r="E44" s="12"/>
       <c r="F44" s="13">
-        <v>45868</v>
+        <v>45828</v>
       </c>
       <c r="G44" t="s" s="14">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
     </row>
     <row r="45" ht="32.05" customHeight="1">
       <c r="A45" t="s" s="9">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B45" t="s" s="10">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C45" s="11">
-        <v>200457</v>
+        <v>194682</v>
       </c>
       <c r="D45" s="11">
         <v>2025</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="13">
-        <v>45876</v>
+        <v>45868</v>
       </c>
       <c r="G45" t="s" s="14">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="H45" s="12"/>
-    </row>
-    <row r="46" ht="20.05" customHeight="1">
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
+    </row>
+    <row r="46" ht="32.05" customHeight="1">
       <c r="A46" t="s" s="9">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B46" t="s" s="10">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C46" s="11">
-        <v>70927</v>
+        <v>200457</v>
       </c>
       <c r="D46" s="11">
         <v>2025</v>
       </c>
       <c r="E46" s="12"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="12"/>
+      <c r="F46" s="13">
+        <v>45876</v>
+      </c>
+      <c r="G46" t="s" s="14">
+        <v>27</v>
+      </c>
       <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
+      <c r="W46" s="12"/>
     </row>
     <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" s="15"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
+      <c r="A47" t="s" s="9">
+        <v>81</v>
+      </c>
+      <c r="B47" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="C47" s="11">
+        <v>70927</v>
+      </c>
+      <c r="D47" s="11">
+        <v>2025</v>
+      </c>
       <c r="E47" s="12"/>
       <c r="F47" s="13"/>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
     </row>
     <row r="48" ht="20.05" customHeight="1">
       <c r="A48" s="15"/>
@@ -2527,6 +3320,21 @@
       <c r="F48" s="13"/>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
+      <c r="V48" s="12"/>
+      <c r="W48" s="12"/>
     </row>
     <row r="49" ht="20.05" customHeight="1">
       <c r="A49" s="15"/>
@@ -2537,6 +3345,21 @@
       <c r="F49" s="13"/>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="12"/>
+      <c r="W49" s="12"/>
     </row>
     <row r="50" ht="20.05" customHeight="1">
       <c r="A50" s="15"/>
@@ -2547,6 +3370,21 @@
       <c r="F50" s="13"/>
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+      <c r="V50" s="12"/>
+      <c r="W50" s="12"/>
     </row>
     <row r="51" ht="20.05" customHeight="1">
       <c r="A51" s="15"/>
@@ -2557,6 +3395,21 @@
       <c r="F51" s="13"/>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="12"/>
+      <c r="V51" s="12"/>
+      <c r="W51" s="12"/>
     </row>
     <row r="52" ht="20.05" customHeight="1">
       <c r="A52" s="15"/>
@@ -2567,6 +3420,21 @@
       <c r="F52" s="13"/>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12"/>
+      <c r="W52" s="12"/>
     </row>
     <row r="53" ht="20.05" customHeight="1">
       <c r="A53" s="15"/>
@@ -2577,6 +3445,21 @@
       <c r="F53" s="13"/>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
+      <c r="V53" s="12"/>
+      <c r="W53" s="12"/>
     </row>
     <row r="54" ht="20.05" customHeight="1">
       <c r="A54" s="15"/>
@@ -2587,6 +3470,21 @@
       <c r="F54" s="13"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
+      <c r="W54" s="12"/>
     </row>
     <row r="55" ht="20.05" customHeight="1">
       <c r="A55" s="15"/>
@@ -2597,6 +3495,21 @@
       <c r="F55" s="13"/>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
+      <c r="W55" s="12"/>
     </row>
     <row r="56" ht="20.05" customHeight="1">
       <c r="A56" s="15"/>
@@ -2607,6 +3520,21 @@
       <c r="F56" s="13"/>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="12"/>
+      <c r="V56" s="12"/>
+      <c r="W56" s="12"/>
     </row>
     <row r="57" ht="20.05" customHeight="1">
       <c r="A57" s="15"/>
@@ -2617,6 +3545,21 @@
       <c r="F57" s="13"/>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="12"/>
+      <c r="W57" s="12"/>
     </row>
     <row r="58" ht="20.05" customHeight="1">
       <c r="A58" s="15"/>
@@ -2627,6 +3570,21 @@
       <c r="F58" s="13"/>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
+      <c r="R58" s="12"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="12"/>
+      <c r="U58" s="12"/>
+      <c r="V58" s="12"/>
+      <c r="W58" s="12"/>
     </row>
     <row r="59" ht="20.05" customHeight="1">
       <c r="A59" s="15"/>
@@ -2637,6 +3595,21 @@
       <c r="F59" s="13"/>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="12"/>
+      <c r="R59" s="12"/>
+      <c r="S59" s="12"/>
+      <c r="T59" s="12"/>
+      <c r="U59" s="12"/>
+      <c r="V59" s="12"/>
+      <c r="W59" s="12"/>
     </row>
     <row r="60" ht="20.05" customHeight="1">
       <c r="A60" s="15"/>
@@ -2647,6 +3620,46 @@
       <c r="F60" s="13"/>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="12"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="12"/>
+      <c r="U60" s="12"/>
+      <c r="V60" s="12"/>
+      <c r="W60" s="12"/>
+    </row>
+    <row r="61" ht="20.05" customHeight="1">
+      <c r="A61" s="15"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="12"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="12"/>
+      <c r="V61" s="12"/>
+      <c r="W61" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
